--- a/maw/cards.xlsx
+++ b/maw/cards.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -10,16 +10,12 @@
     <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="245">
   <si>
     <t>title</t>
   </si>
@@ -396,9 +392,6 @@
     <t>sun god</t>
   </si>
   <si>
-    <t>Lightning bold</t>
-  </si>
-  <si>
     <t>electric</t>
   </si>
   <si>
@@ -672,18 +665,9 @@
     <t>Return an unit from battle to hand and draw a card.</t>
   </si>
   <si>
-    <t>Blocks 2 units</t>
-  </si>
-  <si>
     <t>Each of your units gets +2/+0 for each hit on it</t>
   </si>
   <si>
-    <t>Each unit can attack twice this turn</t>
-  </si>
-  <si>
-    <t>You can play cards from \our grave</t>
-  </si>
-  <si>
     <t>3 damage ignoring armor</t>
   </si>
   <si>
@@ -720,9 +704,6 @@
     <t>flying poisonous</t>
   </si>
   <si>
-    <t>can attack two creatures</t>
-  </si>
-  <si>
     <t>attacking unit cannot attack next turn</t>
   </si>
   <si>
@@ -733,18 +714,70 @@
   </si>
   <si>
     <t>4 damage</t>
+  </si>
+  <si>
+    <t>Jet skis</t>
+  </si>
+  <si>
+    <t>sailing tempo</t>
+  </si>
+  <si>
+    <t>Root Entanglement</t>
+  </si>
+  <si>
+    <t>put target unit on top of deck</t>
+  </si>
+  <si>
+    <t>Lightning bolt</t>
+  </si>
+  <si>
+    <t>groove, warcry, play yellow</t>
+  </si>
+  <si>
+    <t>You can play cards from your grave</t>
+  </si>
+  <si>
+    <t>extra attack on units</t>
+  </si>
+  <si>
+    <t>each unit has extra attack this turn</t>
+  </si>
+  <si>
+    <t>extra block</t>
+  </si>
+  <si>
+    <t>Kill all units</t>
+  </si>
+  <si>
+    <t>stun attacking unit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -784,13 +817,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -798,14 +833,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1075,8 +1102,8 @@
   <dimension ref="A1:N121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E100" sqref="E100"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1267,7 +1294,19 @@
         <v>85</v>
       </c>
       <c r="I10" t="s">
-        <v>141</v>
+        <v>140</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="L10" t="s">
+        <v>162</v>
+      </c>
+      <c r="M10" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1290,7 +1329,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
@@ -1302,18 +1341,18 @@
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1322,21 +1361,21 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
@@ -1354,13 +1393,13 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J16" t="s">
         <v>39</v>
       </c>
       <c r="K16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1377,7 +1416,7 @@
         <v>88</v>
       </c>
       <c r="J17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1394,13 +1433,13 @@
         <v>88</v>
       </c>
       <c r="I18" t="s">
+        <v>152</v>
+      </c>
+      <c r="J18" t="s">
+        <v>131</v>
+      </c>
+      <c r="K18" t="s">
         <v>153</v>
-      </c>
-      <c r="J18" t="s">
-        <v>132</v>
-      </c>
-      <c r="K18" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1440,10 +1479,10 @@
         <v>3</v>
       </c>
       <c r="J20" t="s">
+        <v>149</v>
+      </c>
+      <c r="K20" t="s">
         <v>150</v>
-      </c>
-      <c r="K20" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1497,10 +1536,10 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1530,22 +1569,16 @@
       <c r="D25" t="s">
         <v>124</v>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="L25" t="s">
-        <v>163</v>
-      </c>
-      <c r="M25" t="s">
-        <v>170</v>
+      <c r="J25" t="s">
+        <v>238</v>
+      </c>
+      <c r="K25" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="1" t="s">
-        <v>125</v>
+      <c r="A26" s="6" t="s">
+        <v>237</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
@@ -1554,10 +1587,13 @@
         <v>118</v>
       </c>
       <c r="D26" t="s">
-        <v>126</v>
+        <v>125</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1588,13 +1624,13 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B31" t="s">
         <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D31" t="s">
         <v>21</v>
@@ -1606,7 +1642,7 @@
         <v>39</v>
       </c>
       <c r="K31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -1623,13 +1659,13 @@
         <v>94</v>
       </c>
       <c r="I32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -1646,10 +1682,10 @@
         <v>87</v>
       </c>
       <c r="J33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -1675,10 +1711,10 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -1695,10 +1731,10 @@
         <v>87</v>
       </c>
       <c r="J35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -1715,13 +1751,13 @@
         <v>93</v>
       </c>
       <c r="I36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -1738,16 +1774,16 @@
         <v>93</v>
       </c>
       <c r="J37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K37" t="s">
         <v>40</v>
       </c>
       <c r="L37" t="s">
+        <v>193</v>
+      </c>
+      <c r="M37" t="s">
         <v>194</v>
-      </c>
-      <c r="M37" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -1764,7 +1800,7 @@
         <v>93</v>
       </c>
       <c r="I38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J38" t="s">
         <v>39</v>
@@ -1787,15 +1823,15 @@
         <v>93</v>
       </c>
       <c r="J39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B40" t="s">
         <v>38</v>
@@ -1804,7 +1840,7 @@
         <v>118</v>
       </c>
       <c r="N40" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -1827,7 +1863,7 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B44" t="s">
         <v>38</v>
@@ -1835,10 +1871,16 @@
       <c r="C44" t="s">
         <v>118</v>
       </c>
+      <c r="E44">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B45" t="s">
         <v>38</v>
@@ -1850,18 +1892,18 @@
         <v>2</v>
       </c>
       <c r="N45" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B46" t="s">
         <v>38</v>
       </c>
       <c r="C46" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D46" t="s">
         <v>21</v>
@@ -1876,10 +1918,10 @@
         <v>3</v>
       </c>
       <c r="J46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K46" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -1896,10 +1938,10 @@
         <v>96</v>
       </c>
       <c r="J47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K47" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -1928,10 +1970,10 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N48" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -1948,10 +1990,10 @@
         <v>97</v>
       </c>
       <c r="J49" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -1968,16 +2010,16 @@
         <v>87</v>
       </c>
       <c r="I50" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J50" t="s">
         <v>39</v>
       </c>
       <c r="K50" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N50" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -2006,10 +2048,10 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -2035,13 +2077,13 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J52" t="s">
         <v>39</v>
       </c>
       <c r="K52" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -2058,19 +2100,19 @@
         <v>99</v>
       </c>
       <c r="E53" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F53" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G53" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H53" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N53" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -2087,10 +2129,10 @@
         <v>96</v>
       </c>
       <c r="J54" t="s">
+        <v>200</v>
+      </c>
+      <c r="K54" t="s">
         <v>201</v>
-      </c>
-      <c r="K54" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -2107,24 +2149,44 @@
         <v>99</v>
       </c>
       <c r="I55" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J55" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="1"/>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="1"/>
+      <c r="A57" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B57" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" t="s">
+        <v>173</v>
+      </c>
+      <c r="D57" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>4</v>
+      </c>
+      <c r="I57" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B58" t="s">
         <v>81</v>
@@ -2133,12 +2195,12 @@
         <v>118</v>
       </c>
       <c r="N58" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B59" t="s">
         <v>81</v>
@@ -2150,12 +2212,12 @@
         <v>2</v>
       </c>
       <c r="N59" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B60" t="s">
         <v>81</v>
@@ -2167,7 +2229,7 @@
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -2178,13 +2240,13 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B62" t="s">
         <v>82</v>
       </c>
       <c r="C62" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D62" t="s">
         <v>21</v>
@@ -2193,19 +2255,19 @@
         <v>2</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I62" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J62" t="s">
         <v>39</v>
       </c>
       <c r="K62" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -2234,10 +2296,10 @@
         <v>3</v>
       </c>
       <c r="J63" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K63" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -2254,7 +2316,7 @@
         <v>98</v>
       </c>
       <c r="N64" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -2300,10 +2362,10 @@
         <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K66" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -2320,7 +2382,7 @@
         <v>107</v>
       </c>
       <c r="N67" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -2365,15 +2427,15 @@
         <v>92</v>
       </c>
       <c r="J70" t="s">
+        <v>162</v>
+      </c>
+      <c r="K70" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B71" t="s">
         <v>82</v>
@@ -2382,7 +2444,7 @@
         <v>21</v>
       </c>
       <c r="D71" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E71">
         <v>4</v>
@@ -2406,7 +2468,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B73" t="s">
         <v>82</v>
@@ -2415,15 +2477,15 @@
         <v>118</v>
       </c>
       <c r="E73">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N73" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B74" t="s">
         <v>82</v>
@@ -2435,7 +2497,7 @@
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -2491,11 +2553,23 @@
       <c r="D79" t="s">
         <v>112</v>
       </c>
-      <c r="H79">
-        <v>1</v>
+      <c r="E79">
+        <v>4</v>
+      </c>
+      <c r="F79">
+        <v>2</v>
+      </c>
+      <c r="G79">
+        <v>4</v>
       </c>
       <c r="I79" t="s">
-        <v>213</v>
+        <v>212</v>
+      </c>
+      <c r="J79" t="s">
+        <v>223</v>
+      </c>
+      <c r="K79" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -2521,7 +2595,7 @@
         <v>4</v>
       </c>
       <c r="I80" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -2537,8 +2611,20 @@
       <c r="D81" t="s">
         <v>86</v>
       </c>
+      <c r="E81">
+        <v>3</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>3</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
       <c r="I81" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -2568,14 +2654,23 @@
       <c r="D83" t="s">
         <v>111</v>
       </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
       <c r="I83" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J83" t="s">
         <v>39</v>
       </c>
       <c r="K83" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -2592,12 +2687,12 @@
         <v>123</v>
       </c>
       <c r="N84" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B85" t="s">
         <v>63</v>
@@ -2605,7 +2700,7 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B86" t="s">
         <v>63</v>
@@ -2617,7 +2712,7 @@
         <v>3</v>
       </c>
       <c r="N86" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -2634,7 +2729,7 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B89" t="s">
         <v>63</v>
@@ -2643,30 +2738,38 @@
         <v>118</v>
       </c>
       <c r="I89" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J89" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N89" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="90" spans="1:14">
-      <c r="A90" s="1"/>
+      <c r="A90" s="5" t="s">
+        <v>235</v>
+      </c>
       <c r="B90" t="s">
         <v>63</v>
       </c>
+      <c r="C90" t="s">
+        <v>118</v>
+      </c>
+      <c r="N90" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B91" t="s">
         <v>63</v>
       </c>
       <c r="C91" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D91" t="s">
         <v>21</v>
@@ -2721,13 +2824,13 @@
         <v>2</v>
       </c>
       <c r="I93" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J93" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K93" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -2764,10 +2867,10 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
+        <v>132</v>
+      </c>
+      <c r="K95" t="s">
         <v>133</v>
-      </c>
-      <c r="K95" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -2807,7 +2910,7 @@
         <v>113</v>
       </c>
       <c r="N97" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -2833,7 +2936,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -2850,13 +2953,13 @@
         <v>120</v>
       </c>
       <c r="I99" t="s">
+        <v>152</v>
+      </c>
+      <c r="J99" t="s">
+        <v>161</v>
+      </c>
+      <c r="K99" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="J99" t="s">
-        <v>162</v>
-      </c>
-      <c r="K99" s="4" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -2876,12 +2979,12 @@
         <v>3</v>
       </c>
       <c r="N100" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B101" t="s">
         <v>71</v>
@@ -2893,12 +2996,12 @@
         <v>2</v>
       </c>
       <c r="N101" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B102" t="s">
         <v>71</v>
@@ -2907,10 +3010,10 @@
         <v>118</v>
       </c>
       <c r="E102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N102" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -2933,13 +3036,13 @@
     </row>
     <row r="106" spans="1:14">
       <c r="A106" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B106" t="s">
         <v>71</v>
       </c>
       <c r="C106" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D106" t="s">
         <v>21</v>
@@ -2948,16 +3051,16 @@
         <v>3</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J106" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K106" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N106" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -2974,10 +3077,10 @@
         <v>99</v>
       </c>
       <c r="J107" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K107" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -2994,10 +3097,10 @@
         <v>87</v>
       </c>
       <c r="J108" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K108" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -3026,10 +3129,10 @@
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K109" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -3055,19 +3158,19 @@
         <v>2</v>
       </c>
       <c r="I110" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="J110" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K110" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="L110" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M110" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -3084,7 +3187,7 @@
         <v>99</v>
       </c>
       <c r="N111" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -3101,7 +3204,7 @@
         <v>99</v>
       </c>
       <c r="I112" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -3118,7 +3221,7 @@
         <v>99</v>
       </c>
       <c r="N113" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -3135,13 +3238,13 @@
         <v>106</v>
       </c>
       <c r="I114" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J114" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K114" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -3158,18 +3261,18 @@
         <v>121</v>
       </c>
       <c r="I115" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J115" t="s">
+        <v>158</v>
+      </c>
+      <c r="K115" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="K115" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="116" spans="1:14">
       <c r="A116" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B116" t="s">
         <v>80</v>
@@ -3178,18 +3281,18 @@
         <v>118</v>
       </c>
       <c r="D116" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E116">
         <v>2</v>
       </c>
       <c r="N116" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="117" spans="1:14">
       <c r="A117" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B117" t="s">
         <v>80</v>
@@ -3201,12 +3304,12 @@
         <v>5</v>
       </c>
       <c r="N117" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="118" spans="1:14">
       <c r="A118" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B118" t="s">
         <v>80</v>
@@ -3215,10 +3318,10 @@
         <v>118</v>
       </c>
       <c r="D118" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N118" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="119" spans="1:14">
